--- a/CLEAN/MarchSales2024_clean.xlsx
+++ b/CLEAN/MarchSales2024_clean.xlsx
@@ -528,7 +528,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ORD_0000001</t>
+          <t>ORD_0011485</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -598,7 +598,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ORD_0000002</t>
+          <t>ORD_0011486</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -668,7 +668,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ORD_0000003</t>
+          <t>ORD_0011487</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -738,7 +738,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ORD_0000004</t>
+          <t>ORD_0011488</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -812,7 +812,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ORD_0000005</t>
+          <t>ORD_0011489</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -882,7 +882,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ORD_0000006</t>
+          <t>ORD_0011490</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -952,7 +952,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ORD_0000007</t>
+          <t>ORD_0011491</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -1026,7 +1026,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ORD_0000008</t>
+          <t>ORD_0011492</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -1096,7 +1096,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ORD_0000009</t>
+          <t>ORD_0011493</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1166,7 +1166,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ORD_0000010</t>
+          <t>ORD_0011494</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -1236,7 +1236,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ORD_0000011</t>
+          <t>ORD_0011495</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -1306,7 +1306,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ORD_0000012</t>
+          <t>ORD_0011496</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -1380,7 +1380,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ORD_0000013</t>
+          <t>ORD_0011497</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -1450,7 +1450,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ORD_0000014</t>
+          <t>ORD_0011498</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1524,7 +1524,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ORD_0000015</t>
+          <t>ORD_0011499</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1594,7 +1594,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ORD_0000016</t>
+          <t>ORD_0011500</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1668,7 +1668,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ORD_0000017</t>
+          <t>ORD_0011501</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1738,7 +1738,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ORD_0000018</t>
+          <t>ORD_0011502</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1808,7 +1808,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ORD_0000019</t>
+          <t>ORD_0011503</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -1878,7 +1878,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ORD_0000020</t>
+          <t>ORD_0011504</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1948,7 +1948,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ORD_0000021</t>
+          <t>ORD_0011505</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -2018,7 +2018,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ORD_0000022</t>
+          <t>ORD_0011506</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -2088,7 +2088,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>ORD_0000023</t>
+          <t>ORD_0011507</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -2158,7 +2158,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ORD_0000024</t>
+          <t>ORD_0011508</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -2228,7 +2228,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ORD_0000025</t>
+          <t>ORD_0011509</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -2298,7 +2298,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ORD_0000026</t>
+          <t>ORD_0011510</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -2368,7 +2368,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ORD_0000027</t>
+          <t>ORD_0011511</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -2438,7 +2438,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ORD_0000028</t>
+          <t>ORD_0011512</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -2508,7 +2508,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>ORD_0000029</t>
+          <t>ORD_0011513</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -2578,7 +2578,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>ORD_0000030</t>
+          <t>ORD_0011514</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -2648,7 +2648,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ORD_0000031</t>
+          <t>ORD_0011515</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -2718,7 +2718,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>ORD_0000032</t>
+          <t>ORD_0011516</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -2788,7 +2788,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ORD_0000033</t>
+          <t>ORD_0011517</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -2858,7 +2858,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>ORD_0000034</t>
+          <t>ORD_0011518</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -2928,7 +2928,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ORD_0000035</t>
+          <t>ORD_0011519</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -2998,7 +2998,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>ORD_0000036</t>
+          <t>ORD_0011520</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -3068,7 +3068,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>ORD_0000037</t>
+          <t>ORD_0011521</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -3138,7 +3138,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>ORD_0000038</t>
+          <t>ORD_0011522</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -3208,7 +3208,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>ORD_0000039</t>
+          <t>ORD_0011523</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -3278,7 +3278,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>ORD_0000040</t>
+          <t>ORD_0011524</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -3348,7 +3348,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>ORD_0000041</t>
+          <t>ORD_0011525</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -3418,7 +3418,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>ORD_0000042</t>
+          <t>ORD_0011526</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -3488,7 +3488,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>ORD_0000043</t>
+          <t>ORD_0011527</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -3562,7 +3562,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>ORD_0000044</t>
+          <t>ORD_0011528</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -3632,7 +3632,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>ORD_0000045</t>
+          <t>ORD_0011529</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -3702,7 +3702,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>ORD_0000046</t>
+          <t>ORD_0011530</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -3772,7 +3772,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>ORD_0000047</t>
+          <t>ORD_0011531</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -3842,7 +3842,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>ORD_0000048</t>
+          <t>ORD_0011532</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -3912,7 +3912,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>ORD_0000049</t>
+          <t>ORD_0011533</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -3982,7 +3982,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>ORD_0000050</t>
+          <t>ORD_0011534</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -4052,7 +4052,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>ORD_0000051</t>
+          <t>ORD_0011535</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -4122,7 +4122,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>ORD_0000052</t>
+          <t>ORD_0011536</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -4192,7 +4192,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>ORD_0000053</t>
+          <t>ORD_0011537</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -4262,7 +4262,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>ORD_0000054</t>
+          <t>ORD_0011538</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -4332,7 +4332,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>ORD_0000055</t>
+          <t>ORD_0011539</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -4402,7 +4402,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>ORD_0000056</t>
+          <t>ORD_0011540</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -4472,7 +4472,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>ORD_0000057</t>
+          <t>ORD_0011541</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -4542,7 +4542,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>ORD_0000058</t>
+          <t>ORD_0011542</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -4612,7 +4612,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>ORD_0000059</t>
+          <t>ORD_0011543</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -4682,7 +4682,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>ORD_0000060</t>
+          <t>ORD_0011544</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -4752,7 +4752,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>ORD_0000061</t>
+          <t>ORD_0011545</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -4822,7 +4822,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>ORD_0000062</t>
+          <t>ORD_0011546</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -4892,7 +4892,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>ORD_0000063</t>
+          <t>ORD_0011547</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -4962,7 +4962,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>ORD_0000064</t>
+          <t>ORD_0011548</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -5032,7 +5032,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>ORD_0000065</t>
+          <t>ORD_0011549</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -5102,7 +5102,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>ORD_0000066</t>
+          <t>ORD_0011550</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -5172,7 +5172,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>ORD_0000067</t>
+          <t>ORD_0011551</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -5246,7 +5246,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>ORD_0000068</t>
+          <t>ORD_0011552</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -5316,7 +5316,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>ORD_0000069</t>
+          <t>ORD_0011553</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -5386,7 +5386,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>ORD_0000070</t>
+          <t>ORD_0011554</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -5460,7 +5460,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>ORD_0000071</t>
+          <t>ORD_0011555</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -5534,7 +5534,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>ORD_0000072</t>
+          <t>ORD_0011556</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -5608,7 +5608,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>ORD_0000073</t>
+          <t>ORD_0011557</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -5678,7 +5678,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>ORD_0000074</t>
+          <t>ORD_0011558</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -5748,7 +5748,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>ORD_0000075</t>
+          <t>ORD_0011559</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -5818,7 +5818,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>ORD_0000076</t>
+          <t>ORD_0011560</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -5888,7 +5888,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>ORD_0000077</t>
+          <t>ORD_0011561</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -5958,7 +5958,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>ORD_0000078</t>
+          <t>ORD_0011562</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -6028,7 +6028,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>ORD_0000079</t>
+          <t>ORD_0011563</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -6098,7 +6098,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>ORD_0000080</t>
+          <t>ORD_0011564</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -6168,7 +6168,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>ORD_0000081</t>
+          <t>ORD_0011565</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -6238,7 +6238,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>ORD_0000082</t>
+          <t>ORD_0011566</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -6308,7 +6308,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>ORD_0000083</t>
+          <t>ORD_0011567</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -6378,7 +6378,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>ORD_0000084</t>
+          <t>ORD_0011568</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -6448,7 +6448,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>ORD_0000085</t>
+          <t>ORD_0011569</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -6518,7 +6518,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>ORD_0000086</t>
+          <t>ORD_0011570</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -6588,7 +6588,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>ORD_0000087</t>
+          <t>ORD_0011571</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -6658,7 +6658,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>ORD_0000088</t>
+          <t>ORD_0011572</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -6728,7 +6728,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>ORD_0000089</t>
+          <t>ORD_0011573</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -6798,7 +6798,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>ORD_0000090</t>
+          <t>ORD_0011574</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -6868,7 +6868,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>ORD_0000091</t>
+          <t>ORD_0011575</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -6942,7 +6942,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>ORD_0000092</t>
+          <t>ORD_0011576</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -7012,7 +7012,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>ORD_0000093</t>
+          <t>ORD_0011577</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -7086,7 +7086,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>ORD_0000094</t>
+          <t>ORD_0011578</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -7160,7 +7160,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>ORD_0000095</t>
+          <t>ORD_0011579</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -7230,7 +7230,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>ORD_0000096</t>
+          <t>ORD_0011580</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -7300,7 +7300,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>ORD_0000097</t>
+          <t>ORD_0011581</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -7370,7 +7370,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>ORD_0000098</t>
+          <t>ORD_0011582</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -7440,7 +7440,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>ORD_0000099</t>
+          <t>ORD_0011583</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -7510,7 +7510,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>ORD_0000100</t>
+          <t>ORD_0011584</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -7580,7 +7580,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>ORD_0000101</t>
+          <t>ORD_0011585</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -7650,7 +7650,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>ORD_0000102</t>
+          <t>ORD_0011586</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -7720,7 +7720,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>ORD_0000103</t>
+          <t>ORD_0011587</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -7794,7 +7794,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>ORD_0000104</t>
+          <t>ORD_0011588</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -7868,7 +7868,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>ORD_0000105</t>
+          <t>ORD_0011589</t>
         </is>
       </c>
       <c r="B106" t="n">
@@ -7938,7 +7938,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>ORD_0000106</t>
+          <t>ORD_0011590</t>
         </is>
       </c>
       <c r="B107" t="n">
@@ -8008,7 +8008,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>ORD_0000107</t>
+          <t>ORD_0011591</t>
         </is>
       </c>
       <c r="B108" t="n">
@@ -8082,7 +8082,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>ORD_0000108</t>
+          <t>ORD_0011592</t>
         </is>
       </c>
       <c r="B109" t="n">
@@ -8152,7 +8152,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>ORD_0000109</t>
+          <t>ORD_0011593</t>
         </is>
       </c>
       <c r="B110" t="n">
@@ -8222,7 +8222,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>ORD_0000110</t>
+          <t>ORD_0011594</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -8292,7 +8292,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>ORD_0000111</t>
+          <t>ORD_0011595</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -8362,7 +8362,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>ORD_0000112</t>
+          <t>ORD_0011596</t>
         </is>
       </c>
       <c r="B113" t="n">
@@ -8432,7 +8432,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>ORD_0000113</t>
+          <t>ORD_0011597</t>
         </is>
       </c>
       <c r="B114" t="n">
@@ -8502,7 +8502,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>ORD_0000114</t>
+          <t>ORD_0011598</t>
         </is>
       </c>
       <c r="B115" t="n">
@@ -8572,7 +8572,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>ORD_0000115</t>
+          <t>ORD_0011599</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -8642,7 +8642,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>ORD_0000116</t>
+          <t>ORD_0011600</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -8712,7 +8712,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>ORD_0000117</t>
+          <t>ORD_0011601</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -8782,7 +8782,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>ORD_0000118</t>
+          <t>ORD_0011602</t>
         </is>
       </c>
       <c r="B119" t="n">
@@ -8852,7 +8852,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>ORD_0000119</t>
+          <t>ORD_0011603</t>
         </is>
       </c>
       <c r="B120" t="n">
@@ -8922,7 +8922,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>ORD_0000120</t>
+          <t>ORD_0011604</t>
         </is>
       </c>
       <c r="B121" t="n">
@@ -8992,7 +8992,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>ORD_0000121</t>
+          <t>ORD_0011605</t>
         </is>
       </c>
       <c r="B122" t="n">
@@ -9062,7 +9062,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>ORD_0000122</t>
+          <t>ORD_0011606</t>
         </is>
       </c>
       <c r="B123" t="n">
@@ -9136,7 +9136,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>ORD_0000123</t>
+          <t>ORD_0011607</t>
         </is>
       </c>
       <c r="B124" t="n">
@@ -9210,7 +9210,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>ORD_0000124</t>
+          <t>ORD_0011608</t>
         </is>
       </c>
       <c r="B125" t="n">
@@ -9280,7 +9280,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>ORD_0000125</t>
+          <t>ORD_0011609</t>
         </is>
       </c>
       <c r="B126" t="n">
@@ -9350,7 +9350,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>ORD_0000126</t>
+          <t>ORD_0011610</t>
         </is>
       </c>
       <c r="B127" t="n">
@@ -9420,7 +9420,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>ORD_0000127</t>
+          <t>ORD_0011611</t>
         </is>
       </c>
       <c r="B128" t="n">
@@ -9490,7 +9490,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>ORD_0000128</t>
+          <t>ORD_0011612</t>
         </is>
       </c>
       <c r="B129" t="n">
@@ -9560,7 +9560,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>ORD_0000129</t>
+          <t>ORD_0011613</t>
         </is>
       </c>
       <c r="B130" t="n">
@@ -9630,7 +9630,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>ORD_0000130</t>
+          <t>ORD_0011614</t>
         </is>
       </c>
       <c r="B131" t="n">
@@ -9700,7 +9700,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>ORD_0000131</t>
+          <t>ORD_0011615</t>
         </is>
       </c>
       <c r="B132" t="n">
@@ -9770,7 +9770,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>ORD_0000132</t>
+          <t>ORD_0011616</t>
         </is>
       </c>
       <c r="B133" t="n">
@@ -9840,7 +9840,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>ORD_0000133</t>
+          <t>ORD_0011617</t>
         </is>
       </c>
       <c r="B134" t="n">
@@ -9914,7 +9914,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>ORD_0000134</t>
+          <t>ORD_0011618</t>
         </is>
       </c>
       <c r="B135" t="n">
@@ -9984,7 +9984,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>ORD_0000135</t>
+          <t>ORD_0011619</t>
         </is>
       </c>
       <c r="B136" t="n">
@@ -10054,7 +10054,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>ORD_0000136</t>
+          <t>ORD_0011620</t>
         </is>
       </c>
       <c r="B137" t="n">
@@ -10124,7 +10124,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>ORD_0000137</t>
+          <t>ORD_0011621</t>
         </is>
       </c>
       <c r="B138" t="n">
@@ -10194,7 +10194,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>ORD_0000138</t>
+          <t>ORD_0011622</t>
         </is>
       </c>
       <c r="B139" t="n">
@@ -10264,7 +10264,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>ORD_0000139</t>
+          <t>ORD_0011623</t>
         </is>
       </c>
       <c r="B140" t="n">
@@ -10334,7 +10334,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>ORD_0000140</t>
+          <t>ORD_0011624</t>
         </is>
       </c>
       <c r="B141" t="n">
@@ -10404,7 +10404,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>ORD_0000141</t>
+          <t>ORD_0011625</t>
         </is>
       </c>
       <c r="B142" t="n">
@@ -10474,7 +10474,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>ORD_0000142</t>
+          <t>ORD_0011626</t>
         </is>
       </c>
       <c r="B143" t="n">
@@ -10544,7 +10544,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>ORD_0000143</t>
+          <t>ORD_0011627</t>
         </is>
       </c>
       <c r="B144" t="n">
@@ -10614,7 +10614,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>ORD_0000144</t>
+          <t>ORD_0011628</t>
         </is>
       </c>
       <c r="B145" t="n">
@@ -10684,7 +10684,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>ORD_0000145</t>
+          <t>ORD_0011629</t>
         </is>
       </c>
       <c r="B146" t="n">
@@ -10754,7 +10754,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>ORD_0000146</t>
+          <t>ORD_0011630</t>
         </is>
       </c>
       <c r="B147" t="n">
@@ -10828,7 +10828,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>ORD_0000147</t>
+          <t>ORD_0011631</t>
         </is>
       </c>
       <c r="B148" t="n">
@@ -10902,7 +10902,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>ORD_0000148</t>
+          <t>ORD_0011632</t>
         </is>
       </c>
       <c r="B149" t="n">
@@ -10972,7 +10972,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>ORD_0000149</t>
+          <t>ORD_0011633</t>
         </is>
       </c>
       <c r="B150" t="n">
@@ -11042,7 +11042,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>ORD_0000150</t>
+          <t>ORD_0011634</t>
         </is>
       </c>
       <c r="B151" t="n">
@@ -11112,7 +11112,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>ORD_0000151</t>
+          <t>ORD_0011635</t>
         </is>
       </c>
       <c r="B152" t="n">
@@ -11182,7 +11182,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>ORD_0000152</t>
+          <t>ORD_0011636</t>
         </is>
       </c>
       <c r="B153" t="n">
@@ -11252,7 +11252,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>ORD_0000153</t>
+          <t>ORD_0011637</t>
         </is>
       </c>
       <c r="B154" t="n">
@@ -11322,7 +11322,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>ORD_0000154</t>
+          <t>ORD_0011638</t>
         </is>
       </c>
       <c r="B155" t="n">
@@ -11396,7 +11396,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>ORD_0000155</t>
+          <t>ORD_0011639</t>
         </is>
       </c>
       <c r="B156" t="n">
@@ -11466,7 +11466,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>ORD_0000156</t>
+          <t>ORD_0011640</t>
         </is>
       </c>
       <c r="B157" t="n">
@@ -11536,7 +11536,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>ORD_0000157</t>
+          <t>ORD_0011641</t>
         </is>
       </c>
       <c r="B158" t="n">
@@ -11606,7 +11606,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>ORD_0000158</t>
+          <t>ORD_0011642</t>
         </is>
       </c>
       <c r="B159" t="n">
@@ -11680,7 +11680,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>ORD_0000159</t>
+          <t>ORD_0011643</t>
         </is>
       </c>
       <c r="B160" t="n">
@@ -11750,7 +11750,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>ORD_0000160</t>
+          <t>ORD_0011644</t>
         </is>
       </c>
       <c r="B161" t="n">
@@ -11820,7 +11820,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>ORD_0000161</t>
+          <t>ORD_0011645</t>
         </is>
       </c>
       <c r="B162" t="n">
@@ -11890,7 +11890,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>ORD_0000162</t>
+          <t>ORD_0011646</t>
         </is>
       </c>
       <c r="B163" t="n">
@@ -11960,7 +11960,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>ORD_0000163</t>
+          <t>ORD_0011647</t>
         </is>
       </c>
       <c r="B164" t="n">
@@ -12030,7 +12030,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>ORD_0000164</t>
+          <t>ORD_0011648</t>
         </is>
       </c>
       <c r="B165" t="n">
@@ -12104,7 +12104,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>ORD_0000165</t>
+          <t>ORD_0011649</t>
         </is>
       </c>
       <c r="B166" t="n">
@@ -12174,7 +12174,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>ORD_0000166</t>
+          <t>ORD_0011650</t>
         </is>
       </c>
       <c r="B167" t="n">
@@ -12244,7 +12244,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>ORD_0000167</t>
+          <t>ORD_0011651</t>
         </is>
       </c>
       <c r="B168" t="n">
@@ -12314,7 +12314,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>ORD_0000168</t>
+          <t>ORD_0011652</t>
         </is>
       </c>
       <c r="B169" t="n">
@@ -12384,7 +12384,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>ORD_0000169</t>
+          <t>ORD_0011653</t>
         </is>
       </c>
       <c r="B170" t="n">
@@ -12454,7 +12454,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>ORD_0000170</t>
+          <t>ORD_0011654</t>
         </is>
       </c>
       <c r="B171" t="n">
@@ -12524,7 +12524,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>ORD_0000171</t>
+          <t>ORD_0011655</t>
         </is>
       </c>
       <c r="B172" t="n">
@@ -12594,7 +12594,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>ORD_0000172</t>
+          <t>ORD_0011656</t>
         </is>
       </c>
       <c r="B173" t="n">
@@ -12668,7 +12668,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>ORD_0000173</t>
+          <t>ORD_0011657</t>
         </is>
       </c>
       <c r="B174" t="n">
@@ -12738,7 +12738,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>ORD_0000174</t>
+          <t>ORD_0011658</t>
         </is>
       </c>
       <c r="B175" t="n">
@@ -12808,7 +12808,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>ORD_0000175</t>
+          <t>ORD_0011659</t>
         </is>
       </c>
       <c r="B176" t="n">
@@ -12878,7 +12878,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>ORD_0000176</t>
+          <t>ORD_0011660</t>
         </is>
       </c>
       <c r="B177" t="n">
@@ -12948,7 +12948,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>ORD_0000177</t>
+          <t>ORD_0011661</t>
         </is>
       </c>
       <c r="B178" t="n">
@@ -13022,7 +13022,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>ORD_0000178</t>
+          <t>ORD_0011662</t>
         </is>
       </c>
       <c r="B179" t="n">
@@ -13092,7 +13092,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>ORD_0000179</t>
+          <t>ORD_0011663</t>
         </is>
       </c>
       <c r="B180" t="n">
@@ -13162,7 +13162,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>ORD_0000180</t>
+          <t>ORD_0011664</t>
         </is>
       </c>
       <c r="B181" t="n">
@@ -13232,7 +13232,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>ORD_0000181</t>
+          <t>ORD_0011665</t>
         </is>
       </c>
       <c r="B182" t="n">
@@ -13306,7 +13306,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>ORD_0000182</t>
+          <t>ORD_0011666</t>
         </is>
       </c>
       <c r="B183" t="n">
@@ -13376,7 +13376,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>ORD_0000183</t>
+          <t>ORD_0011667</t>
         </is>
       </c>
       <c r="B184" t="n">
@@ -13446,7 +13446,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>ORD_0000184</t>
+          <t>ORD_0011668</t>
         </is>
       </c>
       <c r="B185" t="n">
@@ -13516,7 +13516,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>ORD_0000185</t>
+          <t>ORD_0011669</t>
         </is>
       </c>
       <c r="B186" t="n">
@@ -13586,7 +13586,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>ORD_0000186</t>
+          <t>ORD_0011670</t>
         </is>
       </c>
       <c r="B187" t="n">
@@ -13656,7 +13656,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>ORD_0000187</t>
+          <t>ORD_0011671</t>
         </is>
       </c>
       <c r="B188" t="n">
@@ -13726,7 +13726,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>ORD_0000188</t>
+          <t>ORD_0011672</t>
         </is>
       </c>
       <c r="B189" t="n">
@@ -13796,7 +13796,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>ORD_0000189</t>
+          <t>ORD_0011673</t>
         </is>
       </c>
       <c r="B190" t="n">
@@ -13870,7 +13870,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>ORD_0000190</t>
+          <t>ORD_0011674</t>
         </is>
       </c>
       <c r="B191" t="n">
@@ -13940,7 +13940,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>ORD_0000191</t>
+          <t>ORD_0011675</t>
         </is>
       </c>
       <c r="B192" t="n">
@@ -14010,7 +14010,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>ORD_0000192</t>
+          <t>ORD_0011676</t>
         </is>
       </c>
       <c r="B193" t="n">
@@ -14080,7 +14080,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>ORD_0000193</t>
+          <t>ORD_0011677</t>
         </is>
       </c>
       <c r="B194" t="n">
@@ -14150,7 +14150,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>ORD_0000194</t>
+          <t>ORD_0011678</t>
         </is>
       </c>
       <c r="B195" t="n">
@@ -14220,7 +14220,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>ORD_0000195</t>
+          <t>ORD_0011679</t>
         </is>
       </c>
       <c r="B196" t="n">
@@ -14294,7 +14294,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>ORD_0000196</t>
+          <t>ORD_0011680</t>
         </is>
       </c>
       <c r="B197" t="n">
@@ -14364,7 +14364,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>ORD_0000197</t>
+          <t>ORD_0011681</t>
         </is>
       </c>
       <c r="B198" t="n">
@@ -14434,7 +14434,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>ORD_0000198</t>
+          <t>ORD_0011682</t>
         </is>
       </c>
       <c r="B199" t="n">
@@ -14504,7 +14504,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>ORD_0000199</t>
+          <t>ORD_0011683</t>
         </is>
       </c>
       <c r="B200" t="n">
@@ -14574,7 +14574,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>ORD_0000200</t>
+          <t>ORD_0011684</t>
         </is>
       </c>
       <c r="B201" t="n">
@@ -14644,7 +14644,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>ORD_0000201</t>
+          <t>ORD_0011685</t>
         </is>
       </c>
       <c r="B202" t="n">
@@ -14714,7 +14714,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>ORD_0000202</t>
+          <t>ORD_0011686</t>
         </is>
       </c>
       <c r="B203" t="n">
@@ -14784,7 +14784,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>ORD_0000203</t>
+          <t>ORD_0011687</t>
         </is>
       </c>
       <c r="B204" t="n">
@@ -14854,7 +14854,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>ORD_0000204</t>
+          <t>ORD_0011688</t>
         </is>
       </c>
       <c r="B205" t="n">
@@ -14928,7 +14928,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>ORD_0000205</t>
+          <t>ORD_0011689</t>
         </is>
       </c>
       <c r="B206" t="n">
@@ -14998,7 +14998,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>ORD_0000206</t>
+          <t>ORD_0011690</t>
         </is>
       </c>
       <c r="B207" t="n">
@@ -15068,7 +15068,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>ORD_0000207</t>
+          <t>ORD_0011691</t>
         </is>
       </c>
       <c r="B208" t="n">
@@ -15138,7 +15138,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>ORD_0000208</t>
+          <t>ORD_0011692</t>
         </is>
       </c>
       <c r="B209" t="n">
@@ -15208,7 +15208,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>ORD_0000209</t>
+          <t>ORD_0011693</t>
         </is>
       </c>
       <c r="B210" t="n">
@@ -15278,7 +15278,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>ORD_0000210</t>
+          <t>ORD_0011694</t>
         </is>
       </c>
       <c r="B211" t="n">
@@ -15348,7 +15348,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>ORD_0000211</t>
+          <t>ORD_0011695</t>
         </is>
       </c>
       <c r="B212" t="n">
@@ -15418,7 +15418,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>ORD_0000212</t>
+          <t>ORD_0011696</t>
         </is>
       </c>
       <c r="B213" t="n">
@@ -15488,7 +15488,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>ORD_0000213</t>
+          <t>ORD_0011697</t>
         </is>
       </c>
       <c r="B214" t="n">
@@ -15558,7 +15558,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>ORD_0000214</t>
+          <t>ORD_0011698</t>
         </is>
       </c>
       <c r="B215" t="n">
@@ -15628,7 +15628,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>ORD_0000215</t>
+          <t>ORD_0011699</t>
         </is>
       </c>
       <c r="B216" t="n">
@@ -15698,7 +15698,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>ORD_0000216</t>
+          <t>ORD_0011700</t>
         </is>
       </c>
       <c r="B217" t="n">
@@ -15768,7 +15768,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>ORD_0000217</t>
+          <t>ORD_0011701</t>
         </is>
       </c>
       <c r="B218" t="n">
@@ -15838,7 +15838,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>ORD_0000218</t>
+          <t>ORD_0011702</t>
         </is>
       </c>
       <c r="B219" t="n">
@@ -15912,7 +15912,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>ORD_0000219</t>
+          <t>ORD_0011703</t>
         </is>
       </c>
       <c r="B220" t="n">
@@ -15982,7 +15982,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>ORD_0000220</t>
+          <t>ORD_0011704</t>
         </is>
       </c>
       <c r="B221" t="n">
@@ -16052,7 +16052,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>ORD_0000221</t>
+          <t>ORD_0011705</t>
         </is>
       </c>
       <c r="B222" t="n">
@@ -16122,7 +16122,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>ORD_0000222</t>
+          <t>ORD_0011706</t>
         </is>
       </c>
       <c r="B223" t="n">
@@ -16196,7 +16196,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>ORD_0000223</t>
+          <t>ORD_0011707</t>
         </is>
       </c>
       <c r="B224" t="n">
@@ -16266,7 +16266,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>ORD_0000224</t>
+          <t>ORD_0011708</t>
         </is>
       </c>
       <c r="B225" t="n">
@@ -16336,7 +16336,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>ORD_0000225</t>
+          <t>ORD_0011709</t>
         </is>
       </c>
       <c r="B226" t="n">
@@ -16406,7 +16406,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>ORD_0000226</t>
+          <t>ORD_0011710</t>
         </is>
       </c>
       <c r="B227" t="n">
@@ -16476,7 +16476,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>ORD_0000227</t>
+          <t>ORD_0011711</t>
         </is>
       </c>
       <c r="B228" t="n">
@@ -16546,7 +16546,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>ORD_0000228</t>
+          <t>ORD_0011712</t>
         </is>
       </c>
       <c r="B229" t="n">
@@ -16616,7 +16616,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>ORD_0000229</t>
+          <t>ORD_0011713</t>
         </is>
       </c>
       <c r="B230" t="n">
@@ -16686,7 +16686,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>ORD_0000230</t>
+          <t>ORD_0011714</t>
         </is>
       </c>
       <c r="B231" t="n">
@@ -16756,7 +16756,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>ORD_0000231</t>
+          <t>ORD_0011715</t>
         </is>
       </c>
       <c r="B232" t="n">
@@ -16826,7 +16826,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>ORD_0000232</t>
+          <t>ORD_0011716</t>
         </is>
       </c>
       <c r="B233" t="n">
@@ -16896,7 +16896,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>ORD_0000233</t>
+          <t>ORD_0011717</t>
         </is>
       </c>
       <c r="B234" t="n">
@@ -16966,7 +16966,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>ORD_0000234</t>
+          <t>ORD_0011718</t>
         </is>
       </c>
       <c r="B235" t="n">
@@ -17036,7 +17036,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>ORD_0000235</t>
+          <t>ORD_0011719</t>
         </is>
       </c>
       <c r="B236" t="n">
@@ -17106,7 +17106,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>ORD_0000236</t>
+          <t>ORD_0011720</t>
         </is>
       </c>
       <c r="B237" t="n">
@@ -17176,7 +17176,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>ORD_0000237</t>
+          <t>ORD_0011721</t>
         </is>
       </c>
       <c r="B238" t="n">
@@ -17246,7 +17246,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>ORD_0000238</t>
+          <t>ORD_0011722</t>
         </is>
       </c>
       <c r="B239" t="n">
@@ -17316,7 +17316,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>ORD_0000239</t>
+          <t>ORD_0011723</t>
         </is>
       </c>
       <c r="B240" t="n">
@@ -17386,7 +17386,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>ORD_0000240</t>
+          <t>ORD_0011724</t>
         </is>
       </c>
       <c r="B241" t="n">
@@ -17456,7 +17456,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>ORD_0000241</t>
+          <t>ORD_0011725</t>
         </is>
       </c>
       <c r="B242" t="n">
@@ -17526,7 +17526,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>ORD_0000242</t>
+          <t>ORD_0011726</t>
         </is>
       </c>
       <c r="B243" t="n">
@@ -17600,7 +17600,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>ORD_0000243</t>
+          <t>ORD_0011727</t>
         </is>
       </c>
       <c r="B244" t="n">
@@ -17670,7 +17670,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>ORD_0000244</t>
+          <t>ORD_0011728</t>
         </is>
       </c>
       <c r="B245" t="n">
@@ -17744,7 +17744,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>ORD_0000245</t>
+          <t>ORD_0011729</t>
         </is>
       </c>
       <c r="B246" t="n">
@@ -17814,7 +17814,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>ORD_0000246</t>
+          <t>ORD_0011730</t>
         </is>
       </c>
       <c r="B247" t="n">
@@ -17884,7 +17884,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>ORD_0000247</t>
+          <t>ORD_0011731</t>
         </is>
       </c>
       <c r="B248" t="n">
@@ -17954,7 +17954,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>ORD_0000248</t>
+          <t>ORD_0011732</t>
         </is>
       </c>
       <c r="B249" t="n">
@@ -18024,7 +18024,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>ORD_0000249</t>
+          <t>ORD_0011733</t>
         </is>
       </c>
       <c r="B250" t="n">
@@ -18094,7 +18094,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>ORD_0000250</t>
+          <t>ORD_0011734</t>
         </is>
       </c>
       <c r="B251" t="n">
@@ -18164,7 +18164,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>ORD_0000251</t>
+          <t>ORD_0011735</t>
         </is>
       </c>
       <c r="B252" t="n">
@@ -18234,7 +18234,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>ORD_0000252</t>
+          <t>ORD_0011736</t>
         </is>
       </c>
       <c r="B253" t="n">
@@ -18304,7 +18304,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>ORD_0000253</t>
+          <t>ORD_0011737</t>
         </is>
       </c>
       <c r="B254" t="n">
@@ -18374,7 +18374,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>ORD_0000254</t>
+          <t>ORD_0011738</t>
         </is>
       </c>
       <c r="B255" t="n">
@@ -18444,7 +18444,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>ORD_0000255</t>
+          <t>ORD_0011739</t>
         </is>
       </c>
       <c r="B256" t="n">
@@ -18514,7 +18514,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>ORD_0000256</t>
+          <t>ORD_0011740</t>
         </is>
       </c>
       <c r="B257" t="n">
@@ -18588,7 +18588,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>ORD_0000257</t>
+          <t>ORD_0011741</t>
         </is>
       </c>
       <c r="B258" t="n">
@@ -18658,7 +18658,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>ORD_0000258</t>
+          <t>ORD_0011742</t>
         </is>
       </c>
       <c r="B259" t="n">
@@ -18728,7 +18728,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>ORD_0000259</t>
+          <t>ORD_0011743</t>
         </is>
       </c>
       <c r="B260" t="n">
@@ -18798,7 +18798,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>ORD_0000260</t>
+          <t>ORD_0011744</t>
         </is>
       </c>
       <c r="B261" t="n">
@@ -18868,7 +18868,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>ORD_0000261</t>
+          <t>ORD_0011745</t>
         </is>
       </c>
       <c r="B262" t="n">
@@ -18938,7 +18938,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>ORD_0000262</t>
+          <t>ORD_0011746</t>
         </is>
       </c>
       <c r="B263" t="n">
@@ -19008,7 +19008,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>ORD_0000263</t>
+          <t>ORD_0011747</t>
         </is>
       </c>
       <c r="B264" t="n">
@@ -19078,7 +19078,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>ORD_0000264</t>
+          <t>ORD_0011748</t>
         </is>
       </c>
       <c r="B265" t="n">
@@ -19148,7 +19148,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>ORD_0000265</t>
+          <t>ORD_0011749</t>
         </is>
       </c>
       <c r="B266" t="n">
@@ -19218,7 +19218,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>ORD_0000266</t>
+          <t>ORD_0011750</t>
         </is>
       </c>
       <c r="B267" t="n">
@@ -19288,7 +19288,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>ORD_0000267</t>
+          <t>ORD_0011751</t>
         </is>
       </c>
       <c r="B268" t="n">
@@ -19358,7 +19358,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>ORD_0000268</t>
+          <t>ORD_0011752</t>
         </is>
       </c>
       <c r="B269" t="n">
@@ -19428,7 +19428,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>ORD_0000269</t>
+          <t>ORD_0011753</t>
         </is>
       </c>
       <c r="B270" t="n">
@@ -19502,7 +19502,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>ORD_0000270</t>
+          <t>ORD_0011754</t>
         </is>
       </c>
       <c r="B271" t="n">
@@ -19572,7 +19572,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>ORD_0000271</t>
+          <t>ORD_0011755</t>
         </is>
       </c>
       <c r="B272" t="n">
@@ -19642,7 +19642,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>ORD_0000272</t>
+          <t>ORD_0011756</t>
         </is>
       </c>
       <c r="B273" t="n">
@@ -19716,7 +19716,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>ORD_0000273</t>
+          <t>ORD_0011757</t>
         </is>
       </c>
       <c r="B274" t="n">
@@ -19786,7 +19786,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>ORD_0000274</t>
+          <t>ORD_0011758</t>
         </is>
       </c>
       <c r="B275" t="n">
@@ -19856,7 +19856,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>ORD_0000275</t>
+          <t>ORD_0011759</t>
         </is>
       </c>
       <c r="B276" t="n">
@@ -19926,7 +19926,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>ORD_0000276</t>
+          <t>ORD_0011760</t>
         </is>
       </c>
       <c r="B277" t="n">
@@ -19996,7 +19996,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>ORD_0000277</t>
+          <t>ORD_0011761</t>
         </is>
       </c>
       <c r="B278" t="n">
@@ -20066,7 +20066,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>ORD_0000278</t>
+          <t>ORD_0011762</t>
         </is>
       </c>
       <c r="B279" t="n">
@@ -20140,7 +20140,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>ORD_0000279</t>
+          <t>ORD_0011763</t>
         </is>
       </c>
       <c r="B280" t="n">
@@ -20210,7 +20210,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>ORD_0000280</t>
+          <t>ORD_0011764</t>
         </is>
       </c>
       <c r="B281" t="n">
@@ -20280,7 +20280,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>ORD_0000281</t>
+          <t>ORD_0011765</t>
         </is>
       </c>
       <c r="B282" t="n">
@@ -20350,7 +20350,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>ORD_0000282</t>
+          <t>ORD_0011766</t>
         </is>
       </c>
       <c r="B283" t="n">
@@ -20420,7 +20420,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>ORD_0000283</t>
+          <t>ORD_0011767</t>
         </is>
       </c>
       <c r="B284" t="n">
@@ -20490,7 +20490,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>ORD_0000284</t>
+          <t>ORD_0011768</t>
         </is>
       </c>
       <c r="B285" t="n">
@@ -20560,7 +20560,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>ORD_0000285</t>
+          <t>ORD_0011769</t>
         </is>
       </c>
       <c r="B286" t="n">
@@ -20630,7 +20630,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>ORD_0000286</t>
+          <t>ORD_0011770</t>
         </is>
       </c>
       <c r="B287" t="n">
@@ -20700,7 +20700,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>ORD_0000287</t>
+          <t>ORD_0011771</t>
         </is>
       </c>
       <c r="B288" t="n">
@@ -20770,7 +20770,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>ORD_0000288</t>
+          <t>ORD_0011772</t>
         </is>
       </c>
       <c r="B289" t="n">
@@ -20840,7 +20840,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>ORD_0000289</t>
+          <t>ORD_0011773</t>
         </is>
       </c>
       <c r="B290" t="n">
@@ -20910,7 +20910,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>ORD_0000290</t>
+          <t>ORD_0011774</t>
         </is>
       </c>
       <c r="B291" t="n">
@@ -20980,7 +20980,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>ORD_0000291</t>
+          <t>ORD_0011775</t>
         </is>
       </c>
       <c r="B292" t="n">
@@ -21054,7 +21054,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>ORD_0000292</t>
+          <t>ORD_0011776</t>
         </is>
       </c>
       <c r="B293" t="n">
@@ -21124,7 +21124,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>ORD_0000293</t>
+          <t>ORD_0011777</t>
         </is>
       </c>
       <c r="B294" t="n">
@@ -21194,7 +21194,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>ORD_0000294</t>
+          <t>ORD_0011778</t>
         </is>
       </c>
       <c r="B295" t="n">
@@ -21264,7 +21264,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>ORD_0000295</t>
+          <t>ORD_0011779</t>
         </is>
       </c>
       <c r="B296" t="n">
@@ -21334,7 +21334,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>ORD_0000296</t>
+          <t>ORD_0011780</t>
         </is>
       </c>
       <c r="B297" t="n">
@@ -21408,7 +21408,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>ORD_0000297</t>
+          <t>ORD_0011781</t>
         </is>
       </c>
       <c r="B298" t="n">
@@ -21482,7 +21482,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>ORD_0000298</t>
+          <t>ORD_0011782</t>
         </is>
       </c>
       <c r="B299" t="n">
@@ -21552,7 +21552,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>ORD_0000299</t>
+          <t>ORD_0011783</t>
         </is>
       </c>
       <c r="B300" t="n">
@@ -21622,7 +21622,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>ORD_0000300</t>
+          <t>ORD_0011784</t>
         </is>
       </c>
       <c r="B301" t="n">
@@ -21692,7 +21692,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>ORD_0000301</t>
+          <t>ORD_0011785</t>
         </is>
       </c>
       <c r="B302" t="n">
@@ -21762,7 +21762,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>ORD_0000302</t>
+          <t>ORD_0011786</t>
         </is>
       </c>
       <c r="B303" t="n">
@@ -21832,7 +21832,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>ORD_0000303</t>
+          <t>ORD_0011787</t>
         </is>
       </c>
       <c r="B304" t="n">
@@ -21902,7 +21902,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>ORD_0000304</t>
+          <t>ORD_0011788</t>
         </is>
       </c>
       <c r="B305" t="n">
@@ -21972,7 +21972,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>ORD_0000305</t>
+          <t>ORD_0011789</t>
         </is>
       </c>
       <c r="B306" t="n">
@@ -22042,7 +22042,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>ORD_0000306</t>
+          <t>ORD_0011790</t>
         </is>
       </c>
       <c r="B307" t="n">
@@ -22116,7 +22116,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>ORD_0000307</t>
+          <t>ORD_0011791</t>
         </is>
       </c>
       <c r="B308" t="n">
@@ -22190,7 +22190,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>ORD_0000308</t>
+          <t>ORD_0011792</t>
         </is>
       </c>
       <c r="B309" t="n">
@@ -22260,7 +22260,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>ORD_0000309</t>
+          <t>ORD_0011793</t>
         </is>
       </c>
       <c r="B310" t="n">
@@ -22330,7 +22330,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>ORD_0000310</t>
+          <t>ORD_0011794</t>
         </is>
       </c>
       <c r="B311" t="n">
@@ -22400,7 +22400,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>ORD_0000311</t>
+          <t>ORD_0011795</t>
         </is>
       </c>
       <c r="B312" t="n">
@@ -22470,7 +22470,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>ORD_0000312</t>
+          <t>ORD_0011796</t>
         </is>
       </c>
       <c r="B313" t="n">
@@ -22540,7 +22540,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>ORD_0000313</t>
+          <t>ORD_0011797</t>
         </is>
       </c>
       <c r="B314" t="n">
@@ -22610,7 +22610,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>ORD_0000314</t>
+          <t>ORD_0011798</t>
         </is>
       </c>
       <c r="B315" t="n">
@@ -22680,7 +22680,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>ORD_0000315</t>
+          <t>ORD_0011799</t>
         </is>
       </c>
       <c r="B316" t="n">
@@ -22750,7 +22750,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>ORD_0000316</t>
+          <t>ORD_0011800</t>
         </is>
       </c>
       <c r="B317" t="n">
@@ -22820,7 +22820,7 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>ORD_0000317</t>
+          <t>ORD_0011801</t>
         </is>
       </c>
       <c r="B318" t="n">
@@ -22890,7 +22890,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>ORD_0000318</t>
+          <t>ORD_0011802</t>
         </is>
       </c>
       <c r="B319" t="n">
@@ -22960,7 +22960,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>ORD_0000319</t>
+          <t>ORD_0011803</t>
         </is>
       </c>
       <c r="B320" t="n">
@@ -23030,7 +23030,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>ORD_0000320</t>
+          <t>ORD_0011804</t>
         </is>
       </c>
       <c r="B321" t="n">
@@ -23100,7 +23100,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>ORD_0000321</t>
+          <t>ORD_0011805</t>
         </is>
       </c>
       <c r="B322" t="n">
@@ -23170,7 +23170,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>ORD_0000322</t>
+          <t>ORD_0011806</t>
         </is>
       </c>
       <c r="B323" t="n">
@@ -23240,7 +23240,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>ORD_0000323</t>
+          <t>ORD_0011807</t>
         </is>
       </c>
       <c r="B324" t="n">
@@ -23310,7 +23310,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>ORD_0000324</t>
+          <t>ORD_0011808</t>
         </is>
       </c>
       <c r="B325" t="n">
@@ -23380,7 +23380,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>ORD_0000325</t>
+          <t>ORD_0011809</t>
         </is>
       </c>
       <c r="B326" t="n">
@@ -23450,7 +23450,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>ORD_0000326</t>
+          <t>ORD_0011810</t>
         </is>
       </c>
       <c r="B327" t="n">
@@ -23520,7 +23520,7 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>ORD_0000327</t>
+          <t>ORD_0011811</t>
         </is>
       </c>
       <c r="B328" t="n">
@@ -23590,7 +23590,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>ORD_0000328</t>
+          <t>ORD_0011812</t>
         </is>
       </c>
       <c r="B329" t="n">
@@ -23660,7 +23660,7 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>ORD_0000329</t>
+          <t>ORD_0011813</t>
         </is>
       </c>
       <c r="B330" t="n">
@@ -23730,7 +23730,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>ORD_0000330</t>
+          <t>ORD_0011814</t>
         </is>
       </c>
       <c r="B331" t="n">
@@ -23800,7 +23800,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>ORD_0000331</t>
+          <t>ORD_0011815</t>
         </is>
       </c>
       <c r="B332" t="n">
@@ -23870,7 +23870,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>ORD_0000332</t>
+          <t>ORD_0011816</t>
         </is>
       </c>
       <c r="B333" t="n">
@@ -23940,7 +23940,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>ORD_0000333</t>
+          <t>ORD_0011817</t>
         </is>
       </c>
       <c r="B334" t="n">
@@ -24010,7 +24010,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>ORD_0000334</t>
+          <t>ORD_0011818</t>
         </is>
       </c>
       <c r="B335" t="n">
@@ -24080,7 +24080,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>ORD_0000335</t>
+          <t>ORD_0011819</t>
         </is>
       </c>
       <c r="B336" t="n">
@@ -24154,7 +24154,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>ORD_0000336</t>
+          <t>ORD_0011820</t>
         </is>
       </c>
       <c r="B337" t="n">
@@ -24224,7 +24224,7 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>ORD_0000337</t>
+          <t>ORD_0011821</t>
         </is>
       </c>
       <c r="B338" t="n">
@@ -24294,7 +24294,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>ORD_0000338</t>
+          <t>ORD_0011822</t>
         </is>
       </c>
       <c r="B339" t="n">
@@ -24368,7 +24368,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>ORD_0000339</t>
+          <t>ORD_0011823</t>
         </is>
       </c>
       <c r="B340" t="n">
@@ -24438,7 +24438,7 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>ORD_0000340</t>
+          <t>ORD_0011824</t>
         </is>
       </c>
       <c r="B341" t="n">
@@ -24508,7 +24508,7 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>ORD_0000341</t>
+          <t>ORD_0011825</t>
         </is>
       </c>
       <c r="B342" t="n">
@@ -24578,7 +24578,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>ORD_0000342</t>
+          <t>ORD_0011826</t>
         </is>
       </c>
       <c r="B343" t="n">
@@ -24648,7 +24648,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>ORD_0000343</t>
+          <t>ORD_0011827</t>
         </is>
       </c>
       <c r="B344" t="n">
@@ -24722,7 +24722,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>ORD_0000344</t>
+          <t>ORD_0011828</t>
         </is>
       </c>
       <c r="B345" t="n">
@@ -24796,7 +24796,7 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>ORD_0000345</t>
+          <t>ORD_0011829</t>
         </is>
       </c>
       <c r="B346" t="n">
@@ -24866,7 +24866,7 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>ORD_0000346</t>
+          <t>ORD_0011830</t>
         </is>
       </c>
       <c r="B347" t="n">
@@ -24936,7 +24936,7 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>ORD_0000347</t>
+          <t>ORD_0011831</t>
         </is>
       </c>
       <c r="B348" t="n">
@@ -25006,7 +25006,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>ORD_0000348</t>
+          <t>ORD_0011832</t>
         </is>
       </c>
       <c r="B349" t="n">
@@ -25076,7 +25076,7 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>ORD_0000349</t>
+          <t>ORD_0011833</t>
         </is>
       </c>
       <c r="B350" t="n">
@@ -25150,7 +25150,7 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>ORD_0000350</t>
+          <t>ORD_0011834</t>
         </is>
       </c>
       <c r="B351" t="n">
@@ -25220,7 +25220,7 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>ORD_0000351</t>
+          <t>ORD_0011835</t>
         </is>
       </c>
       <c r="B352" t="n">
@@ -25290,7 +25290,7 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>ORD_0000352</t>
+          <t>ORD_0011836</t>
         </is>
       </c>
       <c r="B353" t="n">
@@ -25360,7 +25360,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>ORD_0000353</t>
+          <t>ORD_0011837</t>
         </is>
       </c>
       <c r="B354" t="n">
@@ -25434,7 +25434,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>ORD_0000354</t>
+          <t>ORD_0011838</t>
         </is>
       </c>
       <c r="B355" t="n">
@@ -25504,7 +25504,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>ORD_0000355</t>
+          <t>ORD_0011839</t>
         </is>
       </c>
       <c r="B356" t="n">
@@ -25574,7 +25574,7 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>ORD_0000356</t>
+          <t>ORD_0011840</t>
         </is>
       </c>
       <c r="B357" t="n">
@@ -25644,7 +25644,7 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>ORD_0000357</t>
+          <t>ORD_0011841</t>
         </is>
       </c>
       <c r="B358" t="n">
@@ -25714,7 +25714,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>ORD_0000358</t>
+          <t>ORD_0011842</t>
         </is>
       </c>
       <c r="B359" t="n">
@@ -25784,7 +25784,7 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>ORD_0000359</t>
+          <t>ORD_0011843</t>
         </is>
       </c>
       <c r="B360" t="n">
@@ -25854,7 +25854,7 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>ORD_0000360</t>
+          <t>ORD_0011844</t>
         </is>
       </c>
       <c r="B361" t="n">
@@ -25924,7 +25924,7 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>ORD_0000361</t>
+          <t>ORD_0011845</t>
         </is>
       </c>
       <c r="B362" t="n">
@@ -25998,7 +25998,7 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>ORD_0000362</t>
+          <t>ORD_0011846</t>
         </is>
       </c>
       <c r="B363" t="n">
@@ -26068,7 +26068,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>ORD_0000363</t>
+          <t>ORD_0011847</t>
         </is>
       </c>
       <c r="B364" t="n">
@@ -26138,7 +26138,7 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>ORD_0000364</t>
+          <t>ORD_0011848</t>
         </is>
       </c>
       <c r="B365" t="n">
@@ -26208,7 +26208,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>ORD_0000365</t>
+          <t>ORD_0011849</t>
         </is>
       </c>
       <c r="B366" t="n">
@@ -26278,7 +26278,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>ORD_0000366</t>
+          <t>ORD_0011850</t>
         </is>
       </c>
       <c r="B367" t="n">
@@ -26348,7 +26348,7 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>ORD_0000367</t>
+          <t>ORD_0011851</t>
         </is>
       </c>
       <c r="B368" t="n">
@@ -26418,7 +26418,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>ORD_0000368</t>
+          <t>ORD_0011852</t>
         </is>
       </c>
       <c r="B369" t="n">
@@ -26488,7 +26488,7 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>ORD_0000369</t>
+          <t>ORD_0011853</t>
         </is>
       </c>
       <c r="B370" t="n">
@@ -26558,7 +26558,7 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>ORD_0000370</t>
+          <t>ORD_0011854</t>
         </is>
       </c>
       <c r="B371" t="n">
@@ -26628,7 +26628,7 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>ORD_0000371</t>
+          <t>ORD_0011855</t>
         </is>
       </c>
       <c r="B372" t="n">
@@ -26698,7 +26698,7 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>ORD_0000372</t>
+          <t>ORD_0011856</t>
         </is>
       </c>
       <c r="B373" t="n">
@@ -26768,7 +26768,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>ORD_0000373</t>
+          <t>ORD_0011857</t>
         </is>
       </c>
       <c r="B374" t="n">
@@ -26838,7 +26838,7 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>ORD_0000374</t>
+          <t>ORD_0011858</t>
         </is>
       </c>
       <c r="B375" t="n">
@@ -26912,7 +26912,7 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>ORD_0000375</t>
+          <t>ORD_0011859</t>
         </is>
       </c>
       <c r="B376" t="n">
@@ -26982,7 +26982,7 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>ORD_0000376</t>
+          <t>ORD_0011860</t>
         </is>
       </c>
       <c r="B377" t="n">
@@ -27052,7 +27052,7 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>ORD_0000377</t>
+          <t>ORD_0011861</t>
         </is>
       </c>
       <c r="B378" t="n">
@@ -27122,7 +27122,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>ORD_0000378</t>
+          <t>ORD_0011862</t>
         </is>
       </c>
       <c r="B379" t="n">
@@ -27196,7 +27196,7 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>ORD_0000379</t>
+          <t>ORD_0011863</t>
         </is>
       </c>
       <c r="B380" t="n">
@@ -27266,7 +27266,7 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>ORD_0000380</t>
+          <t>ORD_0011864</t>
         </is>
       </c>
       <c r="B381" t="n">
@@ -27336,7 +27336,7 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>ORD_0000381</t>
+          <t>ORD_0011865</t>
         </is>
       </c>
       <c r="B382" t="n">
@@ -27410,7 +27410,7 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>ORD_0000382</t>
+          <t>ORD_0011866</t>
         </is>
       </c>
       <c r="B383" t="n">
@@ -27480,7 +27480,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>ORD_0000383</t>
+          <t>ORD_0011867</t>
         </is>
       </c>
       <c r="B384" t="n">
@@ -27550,7 +27550,7 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>ORD_0000384</t>
+          <t>ORD_0011868</t>
         </is>
       </c>
       <c r="B385" t="n">
@@ -27620,7 +27620,7 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>ORD_0000385</t>
+          <t>ORD_0011869</t>
         </is>
       </c>
       <c r="B386" t="n">
@@ -27694,7 +27694,7 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>ORD_0000386</t>
+          <t>ORD_0011870</t>
         </is>
       </c>
       <c r="B387" t="n">
@@ -27764,7 +27764,7 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>ORD_0000387</t>
+          <t>ORD_0011871</t>
         </is>
       </c>
       <c r="B388" t="n">
@@ -27838,7 +27838,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>ORD_0000388</t>
+          <t>ORD_0011872</t>
         </is>
       </c>
       <c r="B389" t="n">
@@ -27908,7 +27908,7 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>ORD_0000389</t>
+          <t>ORD_0011873</t>
         </is>
       </c>
       <c r="B390" t="n">
@@ -27978,7 +27978,7 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>ORD_0000390</t>
+          <t>ORD_0011874</t>
         </is>
       </c>
       <c r="B391" t="n">
@@ -28048,7 +28048,7 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>ORD_0000391</t>
+          <t>ORD_0011875</t>
         </is>
       </c>
       <c r="B392" t="n">
@@ -28118,7 +28118,7 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>ORD_0000392</t>
+          <t>ORD_0011876</t>
         </is>
       </c>
       <c r="B393" t="n">
@@ -28188,7 +28188,7 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>ORD_0000393</t>
+          <t>ORD_0011877</t>
         </is>
       </c>
       <c r="B394" t="n">
@@ -28258,7 +28258,7 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>ORD_0000394</t>
+          <t>ORD_0011878</t>
         </is>
       </c>
       <c r="B395" t="n">
@@ -28328,7 +28328,7 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>ORD_0000395</t>
+          <t>ORD_0011879</t>
         </is>
       </c>
       <c r="B396" t="n">
@@ -28398,7 +28398,7 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>ORD_0000396</t>
+          <t>ORD_0011880</t>
         </is>
       </c>
       <c r="B397" t="n">
@@ -28468,7 +28468,7 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>ORD_0000397</t>
+          <t>ORD_0011881</t>
         </is>
       </c>
       <c r="B398" t="n">
@@ -28538,7 +28538,7 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>ORD_0000398</t>
+          <t>ORD_0011882</t>
         </is>
       </c>
       <c r="B399" t="n">
@@ -28608,7 +28608,7 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>ORD_0000399</t>
+          <t>ORD_0011883</t>
         </is>
       </c>
       <c r="B400" t="n">
@@ -28682,7 +28682,7 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>ORD_0000400</t>
+          <t>ORD_0011884</t>
         </is>
       </c>
       <c r="B401" t="n">
@@ -28752,7 +28752,7 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>ORD_0000401</t>
+          <t>ORD_0011885</t>
         </is>
       </c>
       <c r="B402" t="n">
@@ -28822,7 +28822,7 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>ORD_0000402</t>
+          <t>ORD_0011886</t>
         </is>
       </c>
       <c r="B403" t="n">
@@ -28892,7 +28892,7 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>ORD_0000403</t>
+          <t>ORD_0011887</t>
         </is>
       </c>
       <c r="B404" t="n">
@@ -28962,7 +28962,7 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>ORD_0000404</t>
+          <t>ORD_0011888</t>
         </is>
       </c>
       <c r="B405" t="n">
@@ -29036,7 +29036,7 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>ORD_0000405</t>
+          <t>ORD_0011889</t>
         </is>
       </c>
       <c r="B406" t="n">
@@ -29106,7 +29106,7 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>ORD_0000406</t>
+          <t>ORD_0011890</t>
         </is>
       </c>
       <c r="B407" t="n">
@@ -29176,7 +29176,7 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>ORD_0000407</t>
+          <t>ORD_0011891</t>
         </is>
       </c>
       <c r="B408" t="n">
@@ -29246,7 +29246,7 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>ORD_0000408</t>
+          <t>ORD_0011892</t>
         </is>
       </c>
       <c r="B409" t="n">
@@ -29316,7 +29316,7 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>ORD_0000409</t>
+          <t>ORD_0011893</t>
         </is>
       </c>
       <c r="B410" t="n">
@@ -29386,7 +29386,7 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>ORD_0000410</t>
+          <t>ORD_0011894</t>
         </is>
       </c>
       <c r="B411" t="n">
@@ -29456,7 +29456,7 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>ORD_0000411</t>
+          <t>ORD_0011895</t>
         </is>
       </c>
       <c r="B412" t="n">
@@ -29526,7 +29526,7 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>ORD_0000412</t>
+          <t>ORD_0011896</t>
         </is>
       </c>
       <c r="B413" t="n">
@@ -29596,7 +29596,7 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>ORD_0000413</t>
+          <t>ORD_0011897</t>
         </is>
       </c>
       <c r="B414" t="n">
@@ -29666,7 +29666,7 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>ORD_0000414</t>
+          <t>ORD_0011898</t>
         </is>
       </c>
       <c r="B415" t="n">
@@ -29740,7 +29740,7 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>ORD_0000415</t>
+          <t>ORD_0011899</t>
         </is>
       </c>
       <c r="B416" t="n">
@@ -29810,7 +29810,7 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>ORD_0000416</t>
+          <t>ORD_0011900</t>
         </is>
       </c>
       <c r="B417" t="n">
@@ -29884,7 +29884,7 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>ORD_0000417</t>
+          <t>ORD_0011901</t>
         </is>
       </c>
       <c r="B418" t="n">
@@ -29954,7 +29954,7 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>ORD_0000418</t>
+          <t>ORD_0011902</t>
         </is>
       </c>
       <c r="B419" t="n">
@@ -30024,7 +30024,7 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>ORD_0000419</t>
+          <t>ORD_0011903</t>
         </is>
       </c>
       <c r="B420" t="n">
@@ -30094,7 +30094,7 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>ORD_0000420</t>
+          <t>ORD_0011904</t>
         </is>
       </c>
       <c r="B421" t="n">
@@ -30168,7 +30168,7 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>ORD_0000421</t>
+          <t>ORD_0011905</t>
         </is>
       </c>
       <c r="B422" t="n">
@@ -30238,7 +30238,7 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>ORD_0000422</t>
+          <t>ORD_0011906</t>
         </is>
       </c>
       <c r="B423" t="n">
@@ -30312,7 +30312,7 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>ORD_0000423</t>
+          <t>ORD_0011907</t>
         </is>
       </c>
       <c r="B424" t="n">
@@ -30382,7 +30382,7 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>ORD_0000424</t>
+          <t>ORD_0011908</t>
         </is>
       </c>
       <c r="B425" t="n">
@@ -30452,7 +30452,7 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>ORD_0000425</t>
+          <t>ORD_0011909</t>
         </is>
       </c>
       <c r="B426" t="n">
@@ -30522,7 +30522,7 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>ORD_0000426</t>
+          <t>ORD_0011910</t>
         </is>
       </c>
       <c r="B427" t="n">
@@ -30592,7 +30592,7 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>ORD_0000427</t>
+          <t>ORD_0011911</t>
         </is>
       </c>
       <c r="B428" t="n">
@@ -30662,7 +30662,7 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>ORD_0000428</t>
+          <t>ORD_0011912</t>
         </is>
       </c>
       <c r="B429" t="n">
@@ -30732,7 +30732,7 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>ORD_0000429</t>
+          <t>ORD_0011913</t>
         </is>
       </c>
       <c r="B430" t="n">
@@ -30802,7 +30802,7 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>ORD_0000430</t>
+          <t>ORD_0011914</t>
         </is>
       </c>
       <c r="B431" t="n">
@@ -30872,7 +30872,7 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>ORD_0000431</t>
+          <t>ORD_0011915</t>
         </is>
       </c>
       <c r="B432" t="n">
@@ -30942,7 +30942,7 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>ORD_0000432</t>
+          <t>ORD_0011916</t>
         </is>
       </c>
       <c r="B433" t="n">
@@ -31012,7 +31012,7 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>ORD_0000433</t>
+          <t>ORD_0011917</t>
         </is>
       </c>
       <c r="B434" t="n">
@@ -31082,7 +31082,7 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>ORD_0000434</t>
+          <t>ORD_0011918</t>
         </is>
       </c>
       <c r="B435" t="n">
@@ -31156,7 +31156,7 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>ORD_0000435</t>
+          <t>ORD_0011919</t>
         </is>
       </c>
       <c r="B436" t="n">
@@ -31226,7 +31226,7 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>ORD_0000436</t>
+          <t>ORD_0011920</t>
         </is>
       </c>
       <c r="B437" t="n">
@@ -31296,7 +31296,7 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>ORD_0000437</t>
+          <t>ORD_0011921</t>
         </is>
       </c>
       <c r="B438" t="n">
@@ -31366,7 +31366,7 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>ORD_0000438</t>
+          <t>ORD_0011922</t>
         </is>
       </c>
       <c r="B439" t="n">
@@ -31436,7 +31436,7 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>ORD_0000439</t>
+          <t>ORD_0011923</t>
         </is>
       </c>
       <c r="B440" t="n">
@@ -31506,7 +31506,7 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>ORD_0000440</t>
+          <t>ORD_0011924</t>
         </is>
       </c>
       <c r="B441" t="n">
@@ -31580,7 +31580,7 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>ORD_0000441</t>
+          <t>ORD_0011925</t>
         </is>
       </c>
       <c r="B442" t="n">
@@ -31650,7 +31650,7 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>ORD_0000442</t>
+          <t>ORD_0011926</t>
         </is>
       </c>
       <c r="B443" t="n">
@@ -31720,7 +31720,7 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>ORD_0000443</t>
+          <t>ORD_0011927</t>
         </is>
       </c>
       <c r="B444" t="n">
@@ -31790,7 +31790,7 @@
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>ORD_0000444</t>
+          <t>ORD_0011928</t>
         </is>
       </c>
       <c r="B445" t="n">
@@ -31860,7 +31860,7 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>ORD_0000445</t>
+          <t>ORD_0011929</t>
         </is>
       </c>
       <c r="B446" t="n">
@@ -31930,7 +31930,7 @@
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>ORD_0000446</t>
+          <t>ORD_0011930</t>
         </is>
       </c>
       <c r="B447" t="n">
@@ -32000,7 +32000,7 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>ORD_0000447</t>
+          <t>ORD_0011931</t>
         </is>
       </c>
       <c r="B448" t="n">
@@ -32070,7 +32070,7 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>ORD_0000448</t>
+          <t>ORD_0011932</t>
         </is>
       </c>
       <c r="B449" t="n">
@@ -32140,7 +32140,7 @@
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>ORD_0000449</t>
+          <t>ORD_0011933</t>
         </is>
       </c>
       <c r="B450" t="n">
@@ -32210,7 +32210,7 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>ORD_0000450</t>
+          <t>ORD_0011934</t>
         </is>
       </c>
       <c r="B451" t="n">
@@ -32280,7 +32280,7 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>ORD_0000451</t>
+          <t>ORD_0011935</t>
         </is>
       </c>
       <c r="B452" t="n">
@@ -32350,7 +32350,7 @@
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>ORD_0000452</t>
+          <t>ORD_0011936</t>
         </is>
       </c>
       <c r="B453" t="n">
@@ -32424,7 +32424,7 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>ORD_0000453</t>
+          <t>ORD_0011937</t>
         </is>
       </c>
       <c r="B454" t="n">
